--- a/EHS2019/EHS/ExcelGenerator/Template/PPC0003-Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/PPC0003-Template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-005 (Exclude C19 in PPC0002,PPC0003 and U0002)\Front-end\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6075" windowWidth="19260" windowHeight="6000" tabRatio="679"/>
+    <workbookView xWindow="-15" yWindow="6075" windowWidth="19260" windowHeight="6000" tabRatio="805"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="3" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Sub Report ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -158,21 +163,41 @@
   </si>
   <si>
     <t>No. of Matched Transaction</t>
+  </si>
+  <si>
+    <t>CRE21-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To present the selected claim transactions in the Post Payment Check Reports (i.e. PPC0002 and PPC0003) in a randomised way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/06/04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE21-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To exclude claim transactions related to COVID-19 vaccine subsidies in PPC0002, PPC0003, eHS(S)U0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\/mm\/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\/mm\/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\/mm\/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -227,7 +252,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -241,7 +266,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -294,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,17 +416,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -419,6 +453,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -467,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,13 +752,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -729,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -737,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -745,10 +782,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -766,14 +803,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="25" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -792,7 +829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="6" customWidth="1"/>
@@ -801,16 +838,16 @@
     <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" ht="47.25">
+    <row r="3" spans="1:4" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -838,7 +875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="16" customWidth="1"/>
@@ -848,13 +885,13 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" ht="31.5">
+    <row r="3" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -871,14 +908,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="22"/>
       <c r="D4" s="13"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -898,7 +935,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="12" style="16" customWidth="1"/>
@@ -917,17 +954,17 @@
     <col min="15" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="21"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:14" s="23" customFormat="1" ht="47.25">
+    <row r="3" spans="1:14" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -971,7 +1008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
     </row>
   </sheetData>
@@ -987,114 +1024,114 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
   </sheetData>
@@ -1106,11 +1143,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="11" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="11" bestFit="1" customWidth="1"/>
@@ -1119,13 +1156,13 @@
     <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="3" spans="1:4" s="31" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
@@ -1139,8 +1176,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1149,8 +1186,36 @@
       <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="36" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/EHS2019/EHS/ExcelGenerator/Template/PPC0003-Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/PPC0003-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-005 (Exclude C19 in PPC0002,PPC0003 and U0002)\Front-end\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-004 (Randomise sorting of tx in PPC0002 and PPC0003)\Front-end (Phase 3)\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Sub Report ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>To exclude claim transactions related to COVID-19 vaccine subsidies in PPC0002, PPC0003, eHS(S)U0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order of Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/06/24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -931,85 +942,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12" style="16" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="18" style="16" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="18" style="16" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" style="16" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="34" customWidth="1"/>
+    <col min="11" max="11" width="18" style="16" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="18" style="16" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C1" s="21"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1218,6 +1233,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EHS2019/EHS/ExcelGenerator/Template/PPC0003-Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/PPC0003-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-004 (Randomise sorting of tx in PPC0002 and PPC0003)\Front-end (Phase 3)\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-011 (PPC0003 sampling criteria)\Front-end\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Sub Report ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>2021/06/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE21-011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To revise the sampling criteria for post payment check report PPC0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/08/03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1247,6 +1259,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EHS2019/EHS/ExcelGenerator/Template/PPC0003-Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/PPC0003-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-011 (PPC0003 sampling criteria)\Front-end\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swl109\Documents\GitHub\EHS\EHS2019\EHS\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,9 +82,6 @@
     <t>Number of Transaction Generated for Each Service Provider</t>
   </si>
   <si>
-    <t>SP Name (In Chinese)</t>
-  </si>
-  <si>
     <t>PPC0003-01</t>
   </si>
   <si>
@@ -202,18 +199,22 @@
   </si>
   <si>
     <t>2021/08/03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP Name (In Chinese)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\/mm\/dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,12 +292,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="HA_MingLiu"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,12 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -791,7 +780,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -799,7 +788,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -810,7 +799,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -852,23 +841,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="27.7109375" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:4" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -878,10 +862,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -909,8 +893,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>33</v>
+      <c r="A1" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -919,16 +903,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,7 +923,7 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -958,18 +942,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="12" style="16" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="27" customWidth="1"/>
+    <col min="5" max="6" width="23.28515625" style="16" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="16" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="32" customWidth="1"/>
     <col min="11" max="11" width="18" style="16" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="16" customWidth="1"/>
     <col min="13" max="13" width="18" style="16" customWidth="1"/>
@@ -980,56 +963,52 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="21"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>45</v>
+      <c r="A3" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>13</v>
@@ -1184,22 +1163,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:4" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1208,69 +1187,69 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>38</v>
+      <c r="D4" s="34" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="36">
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="36" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>42</v>
+      <c r="D6" s="34" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="36">
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
